--- a/data.xlsx
+++ b/data.xlsx
@@ -193,138 +193,120 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42716</c:v>
+                  <c:v>42730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42723</c:v>
+                  <c:v>42739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42724</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42725</c:v>
+                  <c:v>42743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42730</c:v>
+                  <c:v>42746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42739</c:v>
+                  <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42741</c:v>
+                  <c:v>42753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42743</c:v>
+                  <c:v>42759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42746</c:v>
+                  <c:v>42760</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42748</c:v>
+                  <c:v>42769</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42753</c:v>
+                  <c:v>42770</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42759</c:v>
+                  <c:v>42773</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42760</c:v>
+                  <c:v>42780</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42769</c:v>
+                  <c:v>42790</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42770</c:v>
+                  <c:v>42808</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42773</c:v>
+                  <c:v>42816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42780</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42790</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42808</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42816</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$6:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>95.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.5</c:v>
+                  <c:v>95.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.6</c:v>
+                  <c:v>95.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.3</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.7</c:v>
+                  <c:v>95.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.7</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.1</c:v>
+                  <c:v>94.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.1</c:v>
+                  <c:v>93.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>93.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.2</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>93.5</c:v>
+                  <c:v>92.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.4</c:v>
+                  <c:v>92.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.2</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93</c:v>
+                  <c:v>90.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92.7</c:v>
+                  <c:v>89.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>91.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89.6</c:v>
+                  <c:v>90.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,11 +323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300410176"/>
-        <c:axId val="300414096"/>
+        <c:axId val="199002896"/>
+        <c:axId val="199004016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="300410176"/>
+        <c:axId val="199002896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,14 +370,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300414096"/>
+        <c:crossAx val="199004016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300414096"/>
+        <c:axId val="199004016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300410176"/>
+        <c:crossAx val="199002896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1375,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,6 +1548,14 @@
         <v>89.6</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B22">
+        <v>90.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -248,6 +248,15 @@
                 <c:pt idx="16">
                   <c:v>42825</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>42834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42840</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42841</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -307,6 +316,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,11 +341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199002896"/>
-        <c:axId val="199004016"/>
+        <c:axId val="199655040"/>
+        <c:axId val="199655600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="199002896"/>
+        <c:axId val="199655040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,14 +388,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199004016"/>
+        <c:crossAx val="199655600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="199004016"/>
+        <c:axId val="199655600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199002896"/>
+        <c:crossAx val="199655040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1357,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,11 +1574,36 @@
         <v>90.1</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42834</v>
+      </c>
+      <c r="B23">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42840</v>
+      </c>
+      <c r="B24">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42841</v>
+      </c>
+      <c r="B25">
+        <v>88.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -193,138 +193,186 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$6:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>42716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42725</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>42730</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>42739</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>42741</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>42743</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>42746</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>42748</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>42753</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>42759</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>42760</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>42769</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>42770</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>42773</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>42780</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>42790</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>42808</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>42816</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>42825</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>42834</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>42840</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>42841</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>95.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>95.7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>95.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>95.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>94.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>93.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>93.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>93.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>92.7</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>92.6</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>91.2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>90.3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>89.6</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>90.1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>89.1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>89.2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,11 +389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199655040"/>
-        <c:axId val="199655600"/>
+        <c:axId val="201139536"/>
+        <c:axId val="201140656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="199655040"/>
+        <c:axId val="201139536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,14 +436,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199655600"/>
+        <c:crossAx val="201140656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="199655600"/>
+        <c:axId val="201140656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199655040"/>
+        <c:crossAx val="201139536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1375,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,6 +1646,38 @@
         <v>88.9</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42845</v>
+      </c>
+      <c r="B26">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42849</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42861</v>
+      </c>
+      <c r="B28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42863</v>
+      </c>
+      <c r="B29">
+        <v>87.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
